--- a/House contract payment.xlsx
+++ b/House contract payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chands1\OneDrive - kochind.com\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708DBD4F-2582-4454-A7DE-B42892D527CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79769C-0597-43FE-B1D8-167E50280295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FA371F1D-FD67-4525-A983-F2B3563A273A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Sl.no</t>
   </si>
@@ -111,32 +111,38 @@
     <t>for_Advance</t>
   </si>
   <si>
-    <t>1000 rupees extra</t>
-  </si>
-  <si>
     <t>for_plinth</t>
   </si>
   <si>
-    <t>27th SEP</t>
-  </si>
-  <si>
-    <t>250000 remaining</t>
-  </si>
-  <si>
-    <t>29th SEP</t>
-  </si>
-  <si>
-    <t>9TH SEP</t>
-  </si>
-  <si>
-    <t>200000 remaining</t>
+    <t>advance paid</t>
+  </si>
+  <si>
+    <t>9TH SEP,2021</t>
+  </si>
+  <si>
+    <t>27th SEP,2021</t>
+  </si>
+  <si>
+    <t>29th SEP,2021</t>
+  </si>
+  <si>
+    <t>6th sep,2021</t>
+  </si>
+  <si>
+    <t>17th sep,2021</t>
+  </si>
+  <si>
+    <t>6th Dec,2021</t>
+  </si>
+  <si>
+    <t>plinth amount paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +166,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,15 +202,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1108,15 +1135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1441,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED8943D-3548-4AEE-9ABC-B6F74E859595}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,10 +1523,10 @@
         <v>437500</v>
       </c>
       <c r="G2">
-        <v>438500</v>
+        <v>437500</v>
       </c>
       <c r="H2">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1522,10 +1549,10 @@
         <v>787500</v>
       </c>
       <c r="G3">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="H3">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1734,21 +1761,21 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>438500</v>
+        <v>437500</v>
       </c>
       <c r="C21">
         <v>437500</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>100000</v>
@@ -1757,15 +1784,13 @@
         <v>350000</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
         <v>28</v>
       </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>50000</v>
@@ -1776,11 +1801,108 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>100000</v>
+      </c>
+      <c r="C24">
+        <v>350000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>22000</v>
+      </c>
+      <c r="C25">
+        <v>350000</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>13000</v>
+      </c>
+      <c r="C26">
+        <v>350000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>15000</v>
+      </c>
+      <c r="C27">
+        <v>350000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
+        <v>350000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>40000</v>
+      </c>
+      <c r="C29">
+        <v>350000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <f>SUM(B21:B29)</f>
+        <v>787500</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
